--- a/data/CS1_3/case57/case57_2030.xlsx
+++ b/data/CS1_3/case57/case57_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case57\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1EDCA-6D79-43F3-8F8D-6E6619F3C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9128EF7F-5731-4298-BBF5-450BADCEA7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25050" yWindow="3690" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
